--- a/Programação para Web/Comparativo servidores.xlsx
+++ b/Programação para Web/Comparativo servidores.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALUNO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Hospedagem de site</t>
   </si>
@@ -138,15 +138,15 @@
   </si>
   <si>
     <t>Plano mais barato oferecido?</t>
-  </si>
-  <si>
-    <t>Hostgator Windows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,9 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,18 +476,17 @@
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -495,65 +497,62 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>10.99</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>15.99</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
         <v>7.9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2">
         <v>15.99</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="2">
         <v>15.99</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>131.88</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>191.88</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="2">
         <v>95.88</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="2">
         <v>191.88</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="2">
         <v>191.88</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -566,17 +565,17 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -589,17 +588,17 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -612,17 +611,17 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -635,17 +634,17 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,17 +657,17 @@
       <c r="D10" s="1">
         <v>75</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -681,17 +680,17 @@
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -704,17 +703,17 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -727,17 +726,17 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -750,17 +749,17 @@
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -773,14 +772,14 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F15" s="1">
+        <v>50</v>
+      </c>
       <c r="G15" s="1">
         <v>50</v>
       </c>
-      <c r="H15" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,17 +792,17 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -816,17 +815,17 @@
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -839,17 +838,17 @@
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -862,17 +861,17 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E19" s="1">
+        <v>6.99</v>
+      </c>
       <c r="F19" s="1">
         <v>6.99</v>
       </c>
       <c r="G19" s="1">
         <v>6.99</v>
       </c>
-      <c r="H19" s="1">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -885,17 +884,17 @@
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -908,17 +907,17 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="1">
+      <c r="E21" s="2">
         <v>4.99</v>
       </c>
-      <c r="G21" s="1">
+      <c r="F21" s="2">
         <v>4.99</v>
       </c>
-      <c r="H21" s="1">
+      <c r="G21" s="2">
         <v>4.99</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -931,13 +930,13 @@
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
